--- a/Stocks/SRTRANSFIN.xlsx
+++ b/Stocks/SRTRANSFIN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1020.7333333333332</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1014.6236301366049</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>985.45393032192896</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>57.12889717070361</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>4.3500000000000227</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>28.650000000000091</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.15183246073298459</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1002.8586392161679</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-1.9377246643527997</v>
       </c>
       <c r="Y67">
         <v>-4.6761084497717844</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>978.85</v>
+      </c>
+      <c r="D83">
+        <v>987.5</v>
+      </c>
+      <c r="E83">
+        <v>971</v>
+      </c>
+      <c r="F83">
+        <v>980</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>979.5</v>
+      </c>
+      <c r="H83">
+        <v>976.00051483607183</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>985.01619414111576</v>
+      </c>
+      <c r="K83">
+        <v>961.220733117745</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>65.235978858926785</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>16.5</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>971.83191776561273</v>
+      </c>
+      <c r="W83">
+        <v>979.08267218917933</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-7.2507544235666046</v>
+      </c>
+      <c r="Y83">
+        <v>-9.1442668764537594</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>975</v>
+      </c>
+      <c r="D84">
+        <v>984</v>
+      </c>
+      <c r="E84">
+        <v>965.5</v>
+      </c>
+      <c r="F84">
+        <v>972</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>973.83333333333337</v>
+      </c>
+      <c r="H84">
+        <v>974.9169240847026</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>984.79037322086776</v>
+      </c>
+      <c r="K84">
+        <v>962.17168131380163</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>51.159253436116067</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>18.5</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>971.85777657090307</v>
+      </c>
+      <c r="W84">
+        <v>978.55802980479564</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-6.7002532338925676</v>
+      </c>
+      <c r="Y84">
+        <v>-8.6554641479415206</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>977.95</v>
+      </c>
+      <c r="D85">
+        <v>984.8</v>
+      </c>
+      <c r="E85">
+        <v>972</v>
+      </c>
+      <c r="F85">
+        <v>976.6</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>977.80000000000007</v>
+      </c>
+      <c r="H85">
+        <v>976.35846204235133</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>984.79251250511936</v>
+      </c>
+      <c r="K85">
+        <v>964.35575213295681</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>57.717045471307991</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>4.6000000000000227</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>12.799999999999955</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.35937500000000305</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>972.58734940614875</v>
+      </c>
+      <c r="W85">
+        <v>978.41299055999593</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-5.8256411538471866</v>
+      </c>
+      <c r="Y85">
+        <v>-8.0894995491226531</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>976.6</v>
+      </c>
+      <c r="D86">
+        <v>995</v>
+      </c>
+      <c r="E86">
+        <v>975.65</v>
+      </c>
+      <c r="F86">
+        <v>986.7</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>985.78333333333342</v>
+      </c>
+      <c r="H86">
+        <v>981.07089768784238</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>987.06084305953732</v>
+      </c>
+      <c r="K86">
+        <v>966.86558499229977</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>69.102918945913061</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>11.050000000000068</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>19.350000000000023</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.57105943152455063</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>974.75852642058737</v>
+      </c>
+      <c r="W86">
+        <v>979.02684311110738</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-4.2683166905200096</v>
+      </c>
+      <c r="Y86">
+        <v>-7.3252629774021241</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>997.95</v>
+      </c>
+      <c r="D87">
+        <v>1026.95</v>
+      </c>
+      <c r="E87">
+        <v>985</v>
+      </c>
+      <c r="F87">
+        <v>1024.8</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1012.25</v>
+      </c>
+      <c r="H87">
+        <v>996.66044884392113</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>995.92510015741789</v>
+      </c>
+      <c r="K87">
+        <v>970.89545499401095</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>86.387389136872088</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>39.799999999999955</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>41.950000000000045</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.94874851013110639</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>982.45721466357395</v>
+      </c>
+      <c r="W87">
+        <v>982.41744732509937</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>3.9767338474575809E-2</v>
+      </c>
+      <c r="Y87">
+        <v>-5.8522569142267837</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD87">
+        <f t="shared" si="35"/>
+        <v>989.80000000000007</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="36"/>
+        <v>1001</v>
+      </c>
+      <c r="AF87">
+        <f t="shared" si="37"/>
+        <v>1006</v>
+      </c>
+      <c r="AG87">
+        <f t="shared" si="38"/>
+        <v>1010.95</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1025</v>
+      </c>
+      <c r="D88">
+        <v>1078.8</v>
+      </c>
+      <c r="E88">
+        <v>1000.3</v>
+      </c>
+      <c r="F88">
+        <v>1064.55</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1047.8833333333332</v>
+      </c>
+      <c r="H88">
+        <v>1022.2718910886272</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>1014.3417445668806</v>
+      </c>
+      <c r="K88">
+        <v>977.42979832867513</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>92.129435329096111</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>64.25</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>78.5</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.81847133757961787</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V88">
+        <v>995.08687394610104</v>
+      </c>
+      <c r="W88">
+        <v>988.5013401158327</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>6.5855338302683322</v>
+      </c>
+      <c r="Y88">
+        <v>-3.3646987653277605</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD88">
+        <f t="shared" si="35"/>
+        <v>1009.25</v>
+      </c>
+      <c r="AE88">
+        <f t="shared" si="36"/>
+        <v>1030.3</v>
+      </c>
+      <c r="AF88">
+        <f t="shared" si="37"/>
+        <v>1039.55</v>
+      </c>
+      <c r="AG88">
+        <f t="shared" si="38"/>
+        <v>1048.8</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1074.55</v>
+      </c>
+      <c r="D89">
+        <v>1083.05</v>
+      </c>
+      <c r="E89">
+        <v>1047.05</v>
+      </c>
+      <c r="F89">
+        <v>1065</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1065.0333333333333</v>
+      </c>
+      <c r="H89">
+        <v>1043.6526122109804</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1029.6102457742404</v>
+      </c>
+      <c r="K89">
+        <v>992.90095425563618</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>92.17613694269447</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>17.950000000000045</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>36</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.49861111111111239</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1005.8427394928548</v>
+      </c>
+      <c r="W89">
+        <v>994.16790751465987</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>11.674831978194902</v>
+      </c>
+      <c r="Y89">
+        <v>-0.35679261662322759</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1064.7</v>
+      </c>
+      <c r="D90">
+        <v>1074.3</v>
+      </c>
+      <c r="E90">
+        <v>1051.4000000000001</v>
+      </c>
+      <c r="F90">
+        <v>1060</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1061.8999999999999</v>
+      </c>
+      <c r="H90">
+        <v>1052.7763061054902</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1039.5413022688535</v>
+      </c>
+      <c r="K90">
+        <v>1005.9007421988282</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>85.158043101859263</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>8.5999999999999091</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>22.899999999999864</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.37554585152838255</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1014.1746257247232</v>
+      </c>
+      <c r="W90">
+        <v>999.04435880987023</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>15.130266914852996</v>
+      </c>
+      <c r="Y90">
+        <v>2.7406192896720172</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1068.95</v>
+      </c>
+      <c r="D91">
+        <v>1098</v>
+      </c>
+      <c r="E91">
+        <v>1066.5</v>
+      </c>
+      <c r="F91">
+        <v>1078</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1080.8333333333333</v>
+      </c>
+      <c r="H91">
+        <v>1066.8048197194116</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1052.5321239868861</v>
+      </c>
+      <c r="K91">
+        <v>1019.367243932422</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>88.945529791539656</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>11.5</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>31.5</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.36507936507936506</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1023.9939140747658</v>
+      </c>
+      <c r="W91">
+        <v>1004.8929248239539</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>19.100989250811949</v>
+      </c>
+      <c r="Y91">
+        <v>6.0126932819000034</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1089.95</v>
+      </c>
+      <c r="D92">
+        <v>1103.95</v>
+      </c>
+      <c r="E92">
+        <v>1051.95</v>
+      </c>
+      <c r="F92">
+        <v>1057.5</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1071.1333333333334</v>
+      </c>
+      <c r="H92">
+        <v>1068.9690765263726</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>1063.9583186564669</v>
+      </c>
+      <c r="K92">
+        <v>1026.6078563918838</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>65.243378727260705</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>5.5499999999999545</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>52</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.10673076923076835</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1029.1486965248018</v>
+      </c>
+      <c r="W92">
+        <v>1008.7897452073647</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>20.358951317437118</v>
+      </c>
+      <c r="Y92">
+        <v>8.8819448890074266</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1063</v>
+      </c>
+      <c r="D93">
+        <v>1069.75</v>
+      </c>
+      <c r="E93">
+        <v>1050.0999999999999</v>
+      </c>
+      <c r="F93">
+        <v>1056.3</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1058.7166666666665</v>
+      </c>
+      <c r="H93">
+        <v>1063.8428715965197</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>1065.2453589550298</v>
+      </c>
+      <c r="K93">
+        <v>1031.8283327492429</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>63.995561752962097</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>6.2000000000000455</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>19.650000000000091</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.31552162849872861</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1033.3258201363708</v>
+      </c>
+      <c r="W93">
+        <v>1012.3090233401525</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>21.016796796218273</v>
+      </c>
+      <c r="Y93">
+        <v>11.308915270449596</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1063.6500000000001</v>
+      </c>
+      <c r="D94">
+        <v>1078.9000000000001</v>
+      </c>
+      <c r="E94">
+        <v>1052</v>
+      </c>
+      <c r="F94">
+        <v>1075</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1068.6333333333334</v>
+      </c>
+      <c r="H94">
+        <v>1066.2381024649267</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1068.2797236316899</v>
+      </c>
+      <c r="K94">
+        <v>1036.3109254716335</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>73.768217849078738</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>26.900000000000091</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.85501858736059189</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>1039.737232423083</v>
+      </c>
+      <c r="W94">
+        <v>1016.9527993890301</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>22.784433034052881</v>
+      </c>
+      <c r="Y94">
+        <v>13.604018823170254</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1075</v>
+      </c>
+      <c r="D95">
+        <v>1088</v>
+      </c>
+      <c r="E95">
+        <v>1052.55</v>
+      </c>
+      <c r="F95">
+        <v>1065</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1068.5166666666667</v>
+      </c>
+      <c r="H95">
+        <v>1067.3773845657965</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>1072.6620072690921</v>
+      </c>
+      <c r="K95">
+        <v>1039.9196087001594</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>62.43941964397478</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>12.450000000000045</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>35.450000000000045</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.35119887165021241</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1043.623812050301</v>
+      </c>
+      <c r="W95">
+        <v>1020.5118512861391</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>23.11196076416195</v>
+      </c>
+      <c r="Y95">
+        <v>15.505607211368593</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1061.0999999999999</v>
+      </c>
+      <c r="D96">
+        <v>1083.9000000000001</v>
+      </c>
+      <c r="E96">
+        <v>1061.0999999999999</v>
+      </c>
+      <c r="F96">
+        <v>1083.9000000000001</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1076.3</v>
+      </c>
+      <c r="H96">
+        <v>1071.8386922828981</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>1075.1593389870716</v>
+      </c>
+      <c r="K96">
+        <v>1044.6263623223463</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>72.438992616482963</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>22.800000000000182</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>22.800000000000182</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V96">
+        <v>1049.8201486579471</v>
+      </c>
+      <c r="W96">
+        <v>1025.2072697093881</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>24.612878948559</v>
+      </c>
+      <c r="Y96">
+        <v>17.327061558806676</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1078</v>
+      </c>
+      <c r="D97">
+        <v>1097.5999999999999</v>
+      </c>
+      <c r="E97">
+        <v>1071.4000000000001</v>
+      </c>
+      <c r="F97">
+        <v>1077.5</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1082.1666666666667</v>
+      </c>
+      <c r="H97">
+        <v>1077.0026794747823</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>1080.1461525455002</v>
+      </c>
+      <c r="K97">
+        <v>1050.576059584047</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>65.10270458633282</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>6.0999999999999091</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>26.199999999999818</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.23282442748091417</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1054.0785873259554</v>
+      </c>
+      <c r="W97">
+        <v>1029.0808052864704</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>24.997782039484946</v>
+      </c>
+      <c r="Y97">
+        <v>18.861205654942331</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1093</v>
+      </c>
+      <c r="D98">
+        <v>1115</v>
+      </c>
+      <c r="E98">
+        <v>1080</v>
+      </c>
+      <c r="F98">
+        <v>1083</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1092.6666666666667</v>
+      </c>
+      <c r="H98">
+        <v>1084.8346730707244</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>1087.8914519798334</v>
+      </c>
+      <c r="K98">
+        <v>1057.1147130098143</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>68.526741293586511</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>35</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1058.5280354296544</v>
+      </c>
+      <c r="W98">
+        <v>1033.0748197096948</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>25.453215719959644</v>
+      </c>
+      <c r="Y98">
+        <v>20.179607667945795</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1083</v>
+      </c>
+      <c r="D99">
+        <v>1090</v>
+      </c>
+      <c r="E99">
+        <v>1062.55</v>
+      </c>
+      <c r="F99">
+        <v>1069</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1073.8500000000001</v>
+      </c>
+      <c r="H99">
+        <v>1079.3423365353624</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>1088.360018206537</v>
+      </c>
+      <c r="K99">
+        <v>1058.322554563189</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>52.223098916280421</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>6.4500000000000455</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>27.450000000000045</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.23497267759562968</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1060.1391069020153</v>
+      </c>
+      <c r="W99">
+        <v>1035.7359441756432</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>24.403162726372102</v>
+      </c>
+      <c r="Y99">
+        <v>21.024318679631058</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1062</v>
+      </c>
+      <c r="D100">
+        <v>1088</v>
+      </c>
+      <c r="E100">
+        <v>1055.05</v>
+      </c>
+      <c r="F100">
+        <v>1065.95</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1069.6666666666667</v>
+      </c>
+      <c r="H100">
+        <v>1074.5045016010145</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1088.2800141606399</v>
+      </c>
+      <c r="K100">
+        <v>1057.5953202158137</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>49.045455576640549</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>10.900000000000091</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>32.950000000000045</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.33080424886191429</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1061.0330904555515</v>
+      </c>
+      <c r="W100">
+        <v>1037.9740223848548</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>23.05906807069664</v>
+      </c>
+      <c r="Y100">
+        <v>21.431268557844174</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1075.8</v>
+      </c>
+      <c r="D101">
+        <v>1080</v>
+      </c>
+      <c r="E101">
+        <v>1052</v>
+      </c>
+      <c r="F101">
+        <v>1076.7</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1069.5666666666666</v>
+      </c>
+      <c r="H101">
+        <v>1072.0355841338405</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>1086.4400110138311</v>
+      </c>
+      <c r="K101">
+        <v>1056.3519157234107</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>59.817499343561678</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>24.700000000000045</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>28</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.88214285714285878</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1063.4433842316205</v>
+      </c>
+      <c r="W101">
+        <v>1040.84261331931</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>22.600770912310509</v>
+      </c>
+      <c r="Y101">
+        <v>21.665169028737441</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1061.4000000000001</v>
+      </c>
+      <c r="D102">
+        <v>1061.4000000000001</v>
+      </c>
+      <c r="E102">
+        <v>987.4</v>
+      </c>
+      <c r="F102">
+        <v>998.9</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1015.9000000000001</v>
+      </c>
+      <c r="H102">
+        <v>1043.9677920669203</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1080.8755641218686</v>
+      </c>
+      <c r="K102">
+        <v>1041.0292677848749</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>20.538355939462765</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>11.5</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>74.000000000000114</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.15540540540540518</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>1053.5136328113713</v>
+      </c>
+      <c r="W102">
+        <v>1037.7357530734353</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>15.777879737936019</v>
+      </c>
+      <c r="Y102">
+        <v>20.487711170577157</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1006.9</v>
+      </c>
+      <c r="D103">
+        <v>1006.9</v>
+      </c>
+      <c r="E103">
+        <v>968.45</v>
+      </c>
+      <c r="F103">
+        <v>983</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>986.11666666666667</v>
+      </c>
+      <c r="H103">
+        <v>1015.0422293667934</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1064.4365498725645</v>
+      </c>
+      <c r="K103">
+        <v>1024.9005416104583</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>17.587980579332008</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>14.549999999999955</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>38.449999999999932</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.37841352405721668</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1042.6653816096218</v>
+      </c>
+      <c r="W103">
+        <v>1033.6812528457733</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>8.9841287638485028</v>
+      </c>
+      <c r="Y103">
+        <v>18.186994689231426</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>987.95</v>
+      </c>
+      <c r="D104">
+        <v>1023.4</v>
+      </c>
+      <c r="E104">
+        <v>982.8</v>
+      </c>
+      <c r="F104">
+        <v>1005.15</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1003.7833333333333</v>
+      </c>
+      <c r="H104">
+        <v>1009.4127813500634</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1055.3173165675501</v>
+      </c>
+      <c r="K104">
+        <v>1015.5448656970231</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>34.078225463719306</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>22.350000000000023</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>40.600000000000023</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.55049261083743872</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1036.8937844389109</v>
+      </c>
+      <c r="W104">
+        <v>1031.5678267090493</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>5.3259577298615568</v>
+      </c>
+      <c r="Y104">
+        <v>15.614787297357452</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1040</v>
+      </c>
+      <c r="D105">
+        <v>1077.2</v>
+      </c>
+      <c r="E105">
+        <v>1027.3</v>
+      </c>
+      <c r="F105">
+        <v>1049.25</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1051.25</v>
+      </c>
+      <c r="H105">
+        <v>1030.3313906750318</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J105">
+        <v>1060.1801351080944</v>
+      </c>
+      <c r="K105">
+        <v>1018.1571177643513</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N105">
+        <v>55.992871225918293</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>21.950000000000045</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>49.900000000000091</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.43987975951903818</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>1038.7947406790784</v>
+      </c>
+      <c r="W105">
+        <v>1032.8776173231938</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>5.9171233558845415</v>
+      </c>
+      <c r="Y105">
+        <v>13.675254509062871</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1050</v>
+      </c>
+      <c r="D106">
+        <v>1068.8</v>
+      </c>
+      <c r="E106">
+        <v>1033.05</v>
+      </c>
+      <c r="F106">
+        <v>1060</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1053.95</v>
+      </c>
+      <c r="H106">
+        <v>1042.1406953375158</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>1062.0956606396289</v>
+      </c>
+      <c r="K106">
+        <v>1021.466647150051</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>60.040540824552821</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>26.950000000000045</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>35.75</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.75384615384615516</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1042.0570882669124</v>
+      </c>
+      <c r="W106">
+        <v>1034.8866827066608</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>7.1704055602515382</v>
+      </c>
+      <c r="Y106">
+        <v>12.374284719300604</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1060</v>
+      </c>
+      <c r="D107">
+        <v>1069.2</v>
+      </c>
+      <c r="E107">
+        <v>1051.3499999999999</v>
+      </c>
+      <c r="F107">
+        <v>1055</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1058.5166666666667</v>
+      </c>
+      <c r="H107">
+        <v>1050.3286810020913</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>1063.6744027197115</v>
+      </c>
+      <c r="K107">
+        <v>1028.1073922278174</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>56.992829741047416</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>3.6500000000000909</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>17.850000000000136</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.20448179271709035</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>1044.0483054566182</v>
+      </c>
+      <c r="W107">
+        <v>1036.376558061723</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>7.671747394895192</v>
+      </c>
+      <c r="Y107">
+        <v>11.433777254419521</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
